--- a/dev/game_my_interventions-AC.xlsx
+++ b/dev/game_my_interventions-AC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18390" activeTab="3"/>
+    <workbookView windowWidth="18600" windowHeight="17970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <t>case_study</t>
   </si>
   <si>
-    <t>Approve a 
+    <t>Approve a
 fish farm</t>
   </si>
   <si>
@@ -347,7 +347,8 @@
 However, fish farms are criticised for promoting monocultures, not only among farmed fish species but also by impacting the biodiversity in the surrounding waters. Additionally, lacking of transparency in some fish farming operations, particularly regarding their husbandry practices, raises concerns.</t>
   </si>
   <si>
-    <t>Fish farm Outcomes</t>
+    <t>Fish farm
+Outcomes</t>
   </si>
   <si>
     <t>The farm's operations have heavily polluted the water, endangering marine life through the release of pathogens and parasites.</t>
@@ -365,7 +366,7 @@
     <t>fish_farm.jpg</t>
   </si>
   <si>
-    <t>Approve a 
+    <t>Approve a
 monofarm</t>
   </si>
   <si>
@@ -373,7 +374,8 @@
 However, the planned use of intensive pesticides and high water consumption raises concerns about potential negative impacts on local biodiversity and water resources. These environmental risks will need to be carefully assessed and managed.</t>
   </si>
   <si>
-    <t>Monofarm Outcomes</t>
+    <t>Monofarm
+Outcomes</t>
   </si>
   <si>
     <t>The selected crop has proven highly invasive, spreading to other farms and people's gardens. It is outcompeting native plants and decreasing local biodiversity.</t>
@@ -402,7 +404,8 @@
     <t>CS9</t>
   </si>
   <si>
-    <t>Citizen biodiversity Outcomes</t>
+    <t>Citizen biodiversity
+Outcomes</t>
   </si>
   <si>
     <t>The project is a disaster! The app is developed by a consultancy with little understanding or interest in the project and product a buggy mess that nobody wants.</t>
@@ -420,14 +423,16 @@
     <t>dashboard.jpg</t>
   </si>
   <si>
-    <t>Protect local biodiversity</t>
+    <t>Protect
+local biodiversity</t>
   </si>
   <si>
     <t>A proposal to create wildlife park dedicated to the protection and conservation of local flora and fauna has been submitted.
 The park plans to establish a breeding program for rare and threatened animal species, with the goal of reintroducing them into the surrounding environment to help maintain healthy and sustainable populations.</t>
   </si>
   <si>
-    <t>Protect local biodiversity Outcomes</t>
+    <t>Protect local
+biodiversity Outcomes</t>
   </si>
   <si>
     <t>The project is a disaster! An initial breeding programme to strengthen the wolf community led to wolves growing out of control and decimated local pets.</t>
@@ -445,7 +450,7 @@
     <t>protect_biodiversity.jpg</t>
   </si>
   <si>
-    <t>Legally protect 
+    <t>Legally protect
 local crops</t>
   </si>
   <si>
@@ -545,7 +550,8 @@
     <t>reservoir.jpg</t>
   </si>
   <si>
-    <t>Approve a golf resort development</t>
+    <t>Approve a golf resort
+development</t>
   </si>
   <si>
     <t>A leading resort developer proposes to build a golf course resort on currently unused land. The project aims to attract affluent golf enthusiasts and is expected to stimulate  local economy by creating jobs and generating commercial opportunities for residents.
@@ -597,8 +603,8 @@
     <t>water_delivery_service.jpg</t>
   </si>
   <si>
-    <t>Install
-smart water meters</t>
+    <t>Install smart
+water meters</t>
   </si>
   <si>
     <t>The municipality plans to install smart domestic water meters that enable residents to monitor their  water usage in real-time and detect potential leaks within their homes. Users can see their  minute-by-minute consumption such as showering, garden irrigation, dishwashing and clothes washing.
@@ -623,7 +629,8 @@
     <t>smart_meters.jpg</t>
   </si>
   <si>
-    <t>Precision irrigation system</t>
+    <t>Precision irrigation
+system</t>
   </si>
   <si>
     <t>The municipality is seeking to collaborate with local market gardeners to implement precision irrigation systems aimed at reducing water consumption.
@@ -648,8 +655,7 @@
     <t>smart_irrigation.jpg</t>
   </si>
   <si>
-    <t>Create a drought
-dashboard</t>
+    <t>Create a drought dashboard</t>
   </si>
   <si>
     <t>The municipality plans to develop a community website that will provide residents with practical information and support to help them navigate drought events.
@@ -790,7 +796,8 @@
     <t xml:space="preserve">Hearing the news,  a former champion golfer buys the old typewriter factory and rejuvenates it into a high-quality course that keen golfers flock to, boosting tourism substantially. </t>
   </si>
   <si>
-    <t>Engage in flood plain management</t>
+    <t>Engage in flood plain
+management</t>
   </si>
   <si>
     <t>The municipality will develop a floodplain management plan for the local river to reduce floodings in downstream neighbourhoods. The project will remove existing developments and allowing the land to naturally flood and store excess water, it can also support new recreational opportunities and attract diverse wildlife.
@@ -815,7 +822,7 @@
     <t>flood_plain.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a 
+    <t xml:space="preserve">Create a
 flood support website </t>
   </si>
   <si>
@@ -830,7 +837,7 @@
     <t>Flood support website Outcomes</t>
   </si>
   <si>
-    <t>Create a flooding 
+    <t>Create a flooding
 digital twin</t>
   </si>
   <si>
@@ -867,7 +874,8 @@
     <t>CS1</t>
   </si>
   <si>
-    <t>Cool roofs Outcomes</t>
+    <t>Cool roofs
+Outcomes</t>
   </si>
   <si>
     <t>The project is a disaster! The painters have ended up painting everything and damaging many roof-top solar panels.</t>
@@ -885,7 +893,7 @@
     <t>cool_roofs.jpg</t>
   </si>
   <si>
-    <t>Approve installation of 
+    <t>Approve installation of
 firebreaks</t>
   </si>
   <si>
@@ -911,7 +919,7 @@
     <t>firebreaks.jpeg</t>
   </si>
   <si>
-    <t>Approve installation of 
+    <t>Approve installation of
 green walls</t>
   </si>
   <si>
@@ -937,7 +945,7 @@
     <t>green_walls.jpg</t>
   </si>
   <si>
-    <t>Construct a 
+    <t>Construct a
 Miyawaki Forest</t>
   </si>
   <si>
@@ -963,7 +971,7 @@
     <t>miyawaki.jpg</t>
   </si>
   <si>
-    <t>Embrace 
+    <t>Embrace
 heat tourism</t>
   </si>
   <si>
@@ -971,7 +979,8 @@
 This strategy has the potential to boost tourism, stimulate the local economy, and create new jobs to support visitor services. However, prioritizing tourist infrastructure could risk shifting development focus away from the long-term needs of local residents.</t>
   </si>
   <si>
-    <t>Heat tourism Outcomes</t>
+    <t>Heat tourism
+Outcomes</t>
   </si>
   <si>
     <t>The town has become a tourist destination for booze-filled stag and hen parties, making the town a right mess and stretching the emergency services.</t>
@@ -1033,8 +1042,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1112,7 +1121,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1123,6 +1169,29 @@
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,24 +1211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,54 +1226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,14 +1242,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,13 +1272,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1302,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,12 +1350,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1317,13 +1362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,13 +1386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,73 +1428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,19 +1440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,6 +1463,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1468,15 +1510,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,21 +1544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1533,15 +1551,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,145 +1566,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2579,21 +2588,21 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8962962962963" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.8962962962963" style="1"/>
-    <col min="2" max="2" width="46.5333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.1185185185185" style="2" customWidth="1"/>
     <col min="3" max="3" width="82.6" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5037037037037" style="2" customWidth="1"/>
     <col min="5" max="9" width="10.8962962962963" style="3"/>
-    <col min="10" max="10" width="14.6" style="3" customWidth="1"/>
+    <col min="10" max="10" width="33.5925925925926" style="3" customWidth="1"/>
     <col min="11" max="11" width="42.6" style="2" customWidth="1"/>
     <col min="12" max="12" width="46.8962962962963" style="2" customWidth="1"/>
     <col min="13" max="13" width="42.6" style="2" customWidth="1"/>
@@ -2602,7 +2611,7 @@
     <col min="16" max="16384" width="10.8962962962963" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.5" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2684,7 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -2720,7 +2729,7 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K3" s="2" t="s">

--- a/dev/game_my_interventions-AC.xlsx
+++ b/dev/game_my_interventions-AC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD41992-B1E5-C644-8EC1-5F1752F5018F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="17970" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40160" windowHeight="23040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -751,10 +757,6 @@
 flood protection</t>
   </si>
   <si>
-    <t>The local university suggests to host a beaver-led land management project as a nature-based solution aimeing at reducing river flooding. The low-cost project positions the municipality as forward-thinking in its approach to climate resilience and environmental sustainability, which could generate valuable insights into natural flood mitigation.
-However, as a research initiative, the project may not deliver the intended results. Also the introduction of beavers may have potential impacts on local ecosystems, including native flora and fauna.</t>
-  </si>
-  <si>
     <t>Nature-based flood protection Outcomes</t>
   </si>
   <si>
@@ -1033,19 +1035,17 @@
   </si>
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is coping with long-term heat.</t>
+  </si>
+  <si>
+    <t>The local university suggests to host a beaver-led land management project as a nature-based solution aimed at reducing river flooding. The low-cost project positions the municipality as forward-thinking in its approach to climate resilience and environmental sustainability, which could generate valuable insights into natural flood mitigation.
+However, the beavers may dig burrows and channels that affect the stability of river banks, leading to erosions, damage to crops and property.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1088,376 +1088,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1465,253 +1133,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1777,62 +1203,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2110,26 +1495,26 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="39.6" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" ht="255" spans="2:4">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="279.9" customHeight="1" spans="2:4">
+    <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +1550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="195" spans="2:4">
+    <row r="4" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
@@ -2176,7 +1561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="255" spans="2:4">
+    <row r="5" spans="1:4" ht="323" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="240" spans="2:4">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +1583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="240" spans="2:4">
+    <row r="7" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
@@ -2212,39 +1597,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8962962962963" style="10"/>
-    <col min="2" max="2" width="22.8962962962963" customWidth="1"/>
-    <col min="3" max="3" width="30.0962962962963" customWidth="1"/>
-    <col min="4" max="4" width="37.8962962962963" customWidth="1"/>
-    <col min="5" max="7" width="22.5037037037037" style="11" customWidth="1"/>
-    <col min="8" max="10" width="23.6" customWidth="1"/>
-    <col min="11" max="11" width="23.6" style="11" customWidth="1"/>
-    <col min="12" max="12" width="31.8962962962963" customWidth="1"/>
-    <col min="13" max="13" width="28.6" customWidth="1"/>
-    <col min="14" max="15" width="23.6" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
+    <col min="5" max="7" width="22.5" style="11" customWidth="1"/>
+    <col min="8" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="14" max="15" width="23.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:15">
+    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +1673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="171" spans="1:15">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
@@ -2338,7 +1720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="200.25" spans="1:15">
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>50</v>
       </c>
@@ -2385,7 +1767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="185.25" spans="1:15">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
@@ -2432,7 +1814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="185.25" spans="1:15">
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>72</v>
       </c>
@@ -2479,7 +1861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="185.25" spans="1:15">
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>83</v>
       </c>
@@ -2537,21 +1919,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2559,7 +1940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" ht="142.5" spans="1:2">
+    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2567,7 +1948,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" ht="29.25" spans="1:2">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2578,40 +1959,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8962962962963" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8962962962963" style="1"/>
-    <col min="2" max="2" width="37.1185185185185" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82.6" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5037037037037" style="2" customWidth="1"/>
-    <col min="5" max="9" width="10.8962962962963" style="3"/>
-    <col min="10" max="10" width="33.5925925925926" style="3" customWidth="1"/>
-    <col min="11" max="11" width="42.6" style="2" customWidth="1"/>
-    <col min="12" max="12" width="46.8962962962963" style="2" customWidth="1"/>
-    <col min="13" max="13" width="42.6" style="2" customWidth="1"/>
-    <col min="14" max="14" width="50.6" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.8962962962963" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.8962962962963" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="37.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="5" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="33.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="99.75" spans="1:15">
+    <row r="2" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2703,7 +2081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" ht="99.75" spans="1:15">
+    <row r="3" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -2748,7 +2126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" ht="85.5" spans="1:15">
+    <row r="4" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2795,7 +2173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" ht="85.5" spans="1:15">
+    <row r="5" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -2842,7 +2220,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="1:15">
+    <row r="6" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,7 +2267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" ht="85.5" spans="1:15">
+    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -2936,7 +2314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" ht="85.5" spans="1:15">
+    <row r="8" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -2981,7 +2359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" ht="85.5" spans="1:15">
+    <row r="9" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -3026,7 +2404,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" ht="101.25" spans="1:15">
+    <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -3071,7 +2449,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" ht="131.25" spans="1:15">
+    <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -3116,7 +2494,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" ht="85.5" spans="1:15">
+    <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -3161,7 +2539,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" ht="99.75" spans="1:15">
+    <row r="13" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -3206,7 +2584,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" ht="85.5" spans="1:15">
+    <row r="14" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,7 +2629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" ht="99.75" spans="1:15">
+    <row r="15" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -3296,7 +2674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" ht="131.25" spans="1:15">
+    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -3341,7 +2719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" ht="99.75" spans="1:15">
+    <row r="17" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -3386,15 +2764,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" ht="135.9" customHeight="1" spans="1:15">
+    <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>226</v>
+      <c r="C18" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3">
@@ -3413,33 +2791,33 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" ht="100.5" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3">
@@ -3458,33 +2836,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" ht="99.75" spans="1:15">
+    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3">
@@ -3503,36 +2881,36 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" ht="102" spans="1:15">
+    </row>
+    <row r="21" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -3550,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>145</v>
@@ -3568,18 +2946,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" ht="85.5" spans="1:15">
+    <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -3597,36 +2975,36 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" ht="85.5" spans="1:15">
+    <row r="23" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -3644,33 +3022,33 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" ht="99.75" spans="1:15">
+    </row>
+    <row r="24" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -3688,36 +3066,36 @@
         <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" ht="85.5" spans="1:15">
+    </row>
+    <row r="25" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3735,36 +3113,36 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" ht="99.75" spans="1:15">
+    </row>
+    <row r="26" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3782,33 +3160,33 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" ht="113.25" spans="1:15">
+    </row>
+    <row r="27" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
@@ -3826,33 +3204,33 @@
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" ht="99" customHeight="1" spans="1:15">
+    </row>
+    <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -3870,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>145</v>
@@ -3879,7 +3257,7 @@
         <v>146</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -3888,15 +3266,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" ht="99.75" spans="1:15">
+    <row r="29" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -3914,19 +3292,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>156</v>
@@ -3935,6 +3313,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dev/game_my_interventions-AC.xlsx
+++ b/dev/game_my_interventions-AC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD41992-B1E5-C644-8EC1-5F1752F5018F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7EB1-9275-F84A-9086-6A425EB42A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40160" windowHeight="23040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1040" yWindow="6500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="314">
   <si>
     <t>type</t>
   </si>
@@ -40,20 +40,10 @@
     <t>Student</t>
   </si>
   <si>
-    <t>You're a student who lives in the town and studies at the local college. The college is great, but you especially enjoy all the outdoor places around town.
-You would like to have more money and freedom but are unsure how to get them.​ You love going outdoors and doing nice things with friends and family, and prefer not to work too hard at the moment.
-You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse. You worry deeply about your future and the state of the world.</t>
-  </si>
-  <si>
     <t>student2.jpg</t>
   </si>
   <si>
     <t>Young Worker</t>
-  </si>
-  <si>
-    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
-You like having a stable job with a decent wage and room to grow,​ having nice things to do when you're not at work, being able to get on, buy a nice flat with your partner and start putting down some roots.​
-You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and you seem to pay a lot of tax but not see much for it, given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
   </si>
   <si>
     <t>single_worker.jpg</t>
@@ -73,33 +63,18 @@
     <t>Retiree</t>
   </si>
   <si>
-    <t>You are a retired worker. You’ve spent your lifetime working hard, so at this age, you are expecting everything that is rightful for you.
-You enjoy activities that suit an active senior citizen such as shopping, meeting friends,  entertaining. You like using public transport that is easy and stress-free.​
-You don't like changes that hurts you.​ You are annoyed when young people complain about "it's hard now" while you remember how tough it was when you were young, but it didn’t affect you much.​ You have paid taxes all your life and think that retirees should not pay for extra taxes.​</t>
-  </si>
-  <si>
     <t>retiree.jpg</t>
   </si>
   <si>
     <t>Business owner</t>
   </si>
   <si>
-    <t>You are a local business owner and have run it for years. The shop keeps you busy enough and financially secure, but not wealthy.​
-You like nice customers who make good purchases​, tourists and holidaymakers who are keen to buy at your shop. You feel proubd to be a part of the local community​.
-You hate the mall outside town that takes your customers, high parking charges stopping people coming to town.​ The municipality needlessly changing things, you prefer things to stay as they are.</t>
-  </si>
-  <si>
     <t>business_owner.jpg</t>
   </si>
   <si>
     <t>Politician</t>
   </si>
   <si>
-    <t>You are a local politician who entered politics to fight injustice both locally and in the wider community.
-You enjoy being a positive influence in the community, helping change things even when people do not want it, and keeping big companies and powerful people from abusing their power.
-You hate people and organisations that don't understand that we are just tenants, not the permanent owners of the town. You also hate those who try to make quick money at the expense of hardworking citizens.</t>
-  </si>
-  <si>
     <t>politician.jpg</t>
   </si>
   <si>
@@ -169,9 +144,6 @@
     <t>Bad weather impacts the summer holiday season, leading to a decline in trade for many local businesses. Some companies are able to withstand, but for smaller ones that heavily rely on the summer season face potential closure due to substantial losses.</t>
   </si>
   <si>
-    <t>Economic decisions in a country far, far, away for coping with a global credit crunch have restricted the access to capital for many international companies, forcing them to suspend their operations in the town. This has increased costs for goods and services and a general reluctance among residents to spend.</t>
-  </si>
-  <si>
     <t>Resilience Challenge Outcomes</t>
   </si>
   <si>
@@ -202,19 +174,7 @@
     <t>A storage failure at a local dairy farm resulted in milk contaminating the river, leading to the loss of all fish life. While the leak was promptly repaired and the deceased fish removed, significant time will be required for the river’s ecosystem to recover.</t>
   </si>
   <si>
-    <t>A grounded oil tanker released a million barrels of crude oil along the coast, resulting in catastrophic losses to birdlife and  shutting down the local beach tourism industry for years to come. The incident has left residents and businesses deeply concerned about the region’s long-term prospects.</t>
-  </si>
-  <si>
-    <t>A local farm's use of a pesticide has decimated the local bee population that prevented pollination of local crops and plants, leading to significant commercial and environmental consequences.Some residents and businesses are moveing away to areas with improved quality of life.</t>
-  </si>
-  <si>
     <t>The municipality's decisions have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The event has caused substantial damage to our town’s biodiversity - impacting the plants, animals, and local businesses that rely on a healthy ecosystem. Restoring this balance will require significant effort. While we are thankful the situation wasn't more severe, there is an understanding that some aspects of our approach to protecting natural resources could be strengthened.</t>
-  </si>
-  <si>
-    <t>The event had a minimal impact with no serious damage to the local ecosystem. This outcome underscores the importance of proactive measures to protect biodiversity and ensure long-term environmental sustainability. The municipality’s commitment to these principles is clearly contributing to the health and resilience of our community.</t>
   </si>
   <si>
     <t>The event seems to have had minimal effect on the town, bringing great comfort to everyone. However, some are questioning whether the municipality might have been overly cautious in their preparations, wondering if similar future challenges could also be managed so effortlessly.</t>
@@ -236,9 +196,6 @@
     <t>It's been raining more than expected for the time of year and the ground has become sodden, resulting in localised flooding. This impacts local people and businesses and takes resources to clean up once the flood water recedes.</t>
   </si>
   <si>
-    <t>The town has been battered by multiple winter storms, with each storm causing flooding that the town is struggling to recover from before being hit by the next one. Residents and businesses are starting to get nervous about the future.</t>
-  </si>
-  <si>
     <t>The region has been absolutely battered by a once in a lifetime storm that has dumped unprecedented amounts of rain in the region, causing huge amount of damage. Rebuilding will take time and effort.
 Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
   </si>
@@ -246,9 +203,6 @@
     <t xml:space="preserve">The municipality's decisions have left the town vulnerable to flooding. When the recent flood occurred, residents found little support in place, exacerbating the difficulties. Many feel the municipality failed to adequately plan for flood resilience, and the mayor’s resignation is anticipated. </t>
   </si>
   <si>
-    <t>The flood has caused considerable damage, requiring significant effort to rebuild infrastructure and support affected communitites. Sadly, some businesses have closed and many residents face hardship. While the situation could have been more severe, there is a feeling that more could have been done in advance to prepare for this event.</t>
-  </si>
-  <si>
     <t>While the flood has resulted in some minor impacts, fortunately there were no major injuries or loss of life. This is welcome news for local businesses and residents alike. The municipality’s planning efforts appear to have been effective in mitigating the worst potential outcomes.</t>
   </si>
   <si>
@@ -267,21 +221,12 @@
     <t>Drought resilience is challenged when there isn't enough water to meet consumption needs. These droughts are usually caused by a lack of available water, due to consistently low rainfall or the overuse of surface and groundwater over time.</t>
   </si>
   <si>
-    <t>The town has a drier winter than expected, resulting in the main supply reservoirs being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
-  </si>
-  <si>
-    <t>The town has seen less rain than usual over the past year. We hoped last year's low rainfall was just a temporary dip, but unfortunately, that pattern is continuing now. Residents and businesses are understandably concerned about what this means for the future.</t>
-  </si>
-  <si>
     <t>The town is facing challenges due to changing climate patterns that have significantly reduced rainfall, resulting in a drier landscape and limited water resources. While this presents difficulties for the community. Residents and businesses are considering relocation to areas with a more resilient environment.</t>
   </si>
   <si>
     <t>The municipality's past decisions have increased the town's vulnerability to water resources fluctuations. With diminishing water reserves and lacking adequate solutions, the challenging circumstances are intensifying. There is growing criticism of the municipality for not adequately preparing for a drought, raising speculation about whether the mayor may resign soon.</t>
   </si>
   <si>
-    <t>The drought has seriously  affected the town, resulting in extensive work needed to recover services. This situation has led to business closures and numerous residents facing hardships. Despite the conditions could have been worse, many believe the response might have been much improved if not for perceived shortcomings. Residents feel that the municipaltity mishandled its drought planning efforts.</t>
-  </si>
-  <si>
     <t>The drought had only minor effects on the town. This outcome brings considerable comfort to both local businesses and residents. Many believe that the municipality have successfully handled their drought preparations.</t>
   </si>
   <si>
@@ -307,9 +252,6 @@
   </si>
   <si>
     <t>The town appears to be in a climate change where it's just so hot all the time, resulting in the landscape becoming drier and browner.  Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The municipality's decisions have left the town highly vulnerable to intense heatwaves.  As record-high temperatures strain daily life, lacking preparedness measures exacerbates the suffering of residents. Public strongly criticizes the perceived failures in the municipality's heatwave strategy, leading to a widespread expectation that the mayor will step down due to this oversight. </t>
   </si>
   <si>
     <t xml:space="preserve">The town is experiencing difficulties following the recent event, requiring significant infrastructure repairs and resulting in some business closures and hardships for residents. While acknowledging the situation could be graver, many feel outcomes could have been lessen had the municipality handled things differently. There's a prevailing critic that local leadership mishandled their response to the event. </t>
@@ -349,10 +291,6 @@
 fish farm</t>
   </si>
   <si>
-    <t>An offshore fish farm that optimizes fish yields using modern aquaculture techniques has been proposed, which will create local jobs in both fish cultivation and processing, and offer more high-quality fish at both regional and national levels.
-However, fish farms are criticised for promoting monocultures, not only among farmed fish species but also by impacting the biodiversity in the surrounding waters. Additionally, lacking of transparency in some fish farming operations, particularly regarding their husbandry practices, raises concerns.</t>
-  </si>
-  <si>
     <t>Fish farm
 Outcomes</t>
   </si>
@@ -414,9 +352,6 @@
 Outcomes</t>
   </si>
   <si>
-    <t>The project is a disaster! The app is developed by a consultancy with little understanding or interest in the project and product a buggy mess that nobody wants.</t>
-  </si>
-  <si>
     <t>Theres's a small, but hardcore set of citizen users recording everything they can. This provides researchers with useful insights, but the project really needs more scale.</t>
   </si>
   <si>
@@ -441,16 +376,7 @@
 biodiversity Outcomes</t>
   </si>
   <si>
-    <t>The project is a disaster! An initial breeding programme to strengthen the wolf community led to wolves growing out of control and decimated local pets.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whilst the wildlife park has been able to breed endangered local animals, returning  them to their environments always proved difficult, leading to accusations that the park staff were incompetent. </t>
-  </si>
-  <si>
-    <t>The project is a success, with the wildlife park receiving awards for its programmes. There's interest from the community, but it's felt that people would rather enjoy their days out.</t>
-  </si>
-  <si>
-    <t>The project is a great success, with the success reintroduction of rare species. The park is popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about conservation.</t>
   </si>
   <si>
     <t>protect_biodiversity.jpg</t>
@@ -489,15 +415,6 @@
 Research indicates that poor biodiversity decisions often stem from limited knowledge and guidance. The website aims to empower residents, by offering useful knowledge, to make informed choices that support and enhance the local environment.</t>
   </si>
   <si>
-    <t>Biodiversity knowledge base Outcomes</t>
-  </si>
-  <si>
-    <t>The project starts with a lot of fanfare, but the work is passed off to a low-cost bureau who have issues and produce a strange website that serves no-one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the ball is dropped when it comes to advertising  the site, with few residents event being aware that the site event exists. </t>
-  </si>
-  <si>
     <t>The project is delivered and residents are aware and using the website. After an expected biodiversity event, many residents cite the website as being a great resource for helping to deal with  issues.</t>
   </si>
   <si>
@@ -508,23 +425,13 @@
 digital twin </t>
   </si>
   <si>
-    <t>The municipality plans to develop a biodiversity modelling digital twin to monitor local biodiversity and assess the potential negative impacts of different human activities that could affect the ecosystem resilience.
-This digital twin will integrate real-world data with simulation models to generate actionable insights. Its effectiveness will largely depend on the quality of the data collected and the accuracy of the underlying models.</t>
-  </si>
-  <si>
     <t>Biodiversity digital twin Outcomes</t>
   </si>
   <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate biodiversity data and models, resulting in a useless tool.</t>
   </si>
   <si>
-    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting extinction events. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
     <t>The digital twin works well and is providing some good biodiversity strategy insights. The municipality is happy and would like to develop it further.</t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Most residents don't notice, but biodiversity resilience is growing year on year.</t>
   </si>
   <si>
     <t>digital_twin.jpg</t>
@@ -534,10 +441,6 @@
 construction </t>
   </si>
   <si>
-    <t>A local water company proposes to construct a large reservoir in a nearby valley. The reservoir would capture runoffs during the wet seasons, helping establish a more reliable year-round water supply and alleviate water scarcity during the dry seasons.
-However, flooding the valley would significantly alter local ecosystem, displacing wildlife and disrupting fish migration along the river affected by the reservoir.</t>
-  </si>
-  <si>
     <t>Reservoir construction Outcomes</t>
   </si>
   <si>
@@ -548,9 +451,6 @@
   </si>
   <si>
     <t xml:space="preserve">There was a serve drought in the summer. Luckily because of the reservoir there is enough water for the township. </t>
-  </si>
-  <si>
-    <t>There was a serve drought in the summer. However, with the winter rains captured in the reservoir, there is easily enough water for all.</t>
   </si>
   <si>
     <t>reservoir.jpg</t>
@@ -567,16 +467,7 @@
     <t>golf resort development Outcomes</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people only shower once a week to save water. </t>
-  </si>
-  <si>
-    <t>The high resort fees tend to greatly limit the number of guests at any time and most just come to play golf and move on. There's not a lot of trickle down to the town, and if you didn't know the course was there, you probably wouldn't know about it.</t>
-  </si>
-  <si>
     <t>The course is a success, though the high resort fees tend to keep the resort ticking over, giving a relaxed feel. The course has been good for the town, with jobs to support the course and the customers.</t>
-  </si>
-  <si>
-    <t>Golf tourists come from far and wide to play, and when they aren't playing a lot of them are visiting the town and spending money on good days and nights out.</t>
   </si>
   <si>
     <t>golf_course.jpg</t>
@@ -586,15 +477,7 @@
 delivery service</t>
   </si>
   <si>
-    <t xml:space="preserve">The municipality is considering importing bottled water from abroad to address drinking water shortages during drought conditions. This approach would provide a reliable summer water supply and is significantly less expensive in the short term than upgrading the town’s aging water distribution infrastructure.
-However, regular deliveries of bottled water could contribute to traffic congestion and raise public concerns. There is also a reputational risk that the municipality may be seen as avoiding long-term solutions in favor of quick, externally sourced fixes.
-</t>
-  </si>
-  <si>
     <t>Water delivery service Outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's a disaster,  the water did not pass quality assurance and can not be consumed.  Instead the costly water is just being used for non-human use. </t>
   </si>
   <si>
     <t>The effects of a hot and dry summer have been offset through the water. While not a perfect solution, it has had a positive effect.</t>
@@ -623,9 +506,6 @@
     <t>The project is a disaster! The municipality advocated for the smart meter app, but it turned to be full of spyware, collecting customer details and making unauthorised charges on customer accounts.</t>
   </si>
   <si>
-    <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
-  </si>
-  <si>
     <t>The smart water meters have been accepted by residents and water consumption is starting to show a reduction as enthusiastic residents look to minimise consumption.</t>
   </si>
   <si>
@@ -639,14 +519,7 @@
 system</t>
   </si>
   <si>
-    <t>The municipality is seeking to collaborate with local market gardeners to implement precision irrigation systems aimed at reducing water consumption.
-The town hosts a significant market gardening industry that places substantial demand on tap water. Farmers often on the side of overwatering, despite the potential negative impact on crop health. By using computer-assisted systems to assess the actual water needs of crops, irrigation can be optimized, leading to lower overall water use and enabling the cultivation of currently marginal land.</t>
-  </si>
-  <si>
     <t>Smart irrigation programme Outcomes</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The smart irrigation platform is very buggy and is over-watering to the point of causing local flooding.</t>
   </si>
   <si>
     <t>Smart irrigation systems have been installed, with mixed results. Some farmers are reporting success, but many are reluctant to use them as they feel that they have a much better understanding of crop requirements.</t>
@@ -691,24 +564,10 @@
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate drought data and models, resulting in a useless tool.</t>
   </si>
   <si>
-    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
-    <t>The digital twin works well and is providing some good insights, not least a model for forecasting water scarcity. The municipality is happy and would like to develop it further.</t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing conservative water consumption activities to be far better targeted. Most residents don't notice, but the impact of droughts is decreasing year by year.</t>
-  </si>
-  <si>
     <t>Approve sea wall
 construction</t>
   </si>
   <si>
-    <t xml:space="preserve">The community along the coastal road has been repeatedly impacted by sea flooding, driven by high tides and onshore winds, causing significant disruption of services, costly property damage and extensive clean-up efforts.
-Despite the wall cannot fully elimiate the risks of extreme events and could affect the scenic coastal, views, and the construction process will be disruptive, the long-term benefits, including improved safety, reduced damage, and economic stability, may outweigh the drawbacks, supporting the community’s growth and resilience.  
-</t>
-  </si>
-  <si>
     <t>Sea wall construction Outcomes</t>
   </si>
   <si>
@@ -719,9 +578,6 @@
   </si>
   <si>
     <t>The project completes slightly ahead of time, early enough to protect the coastal road from some unseasonally high tides.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortly after the project completes, the town is buffeted a number of huge storms, the worst in living memory. Unlike previous storms, the coast road district doesn’t flood saving the council by not having to perform a large clean-up. </t>
   </si>
   <si>
     <t>sea_wall.jpg</t>
@@ -731,10 +587,6 @@
 leisure resort</t>
   </si>
   <si>
-    <t>A retail company proposes to develop a large out-of-town retail and leisure park on currently unused land, which brings long-term employment opportunities to the area and attract a significant number of visitors to the town. 
-However, there are concerns that the development could negatively impact the town centre, as shoppers may prefer the convenience of the new retail hub. Additionally, the proposed site is a well-loved local meadow, valued by the community for recreation and green space.</t>
-  </si>
-  <si>
     <t>Out-of-town leisure resort Outcomes</t>
   </si>
   <si>
@@ -763,9 +615,6 @@
     <t>The research is a disaster! The beavers have moved to the local arboretum and destroyed most of the rare saplings. The university abandoned the research as unworkable.</t>
   </si>
   <si>
-    <t xml:space="preserve">The beaver area suffers from a heavy rainstorm  resulting in beaver damn bursts and flooding in the downstream </t>
-  </si>
-  <si>
     <t xml:space="preserve">The beaver experiment is working well, and the university is working to increase size of the project, protecting more land. </t>
   </si>
   <si>
@@ -779,10 +628,6 @@
 course to sea</t>
   </si>
   <si>
-    <t>The town’s seaside golf course is increasingly threatened by rising sea levels and high tides due to global warming despite the municipality has spent huge budget to protect it from natural encroachment. Allowing the course to return to the sea would enable the municipality allocating its limited budget more effectively, support the creation of a wildlife wetland, and reduce traffic along the shoreline.
-However, this decision may upset the golfers who regularly use the course and may be perceived by some residents as the municipality abandoning parts of the town to nature.</t>
-  </si>
-  <si>
     <t>Return seaside golf course to sea Outcomes</t>
   </si>
   <si>
@@ -802,10 +647,6 @@
 management</t>
   </si>
   <si>
-    <t>The municipality will develop a floodplain management plan for the local river to reduce floodings in downstream neighbourhoods. The project will remove existing developments and allowing the land to naturally flood and store excess water, it can also support new recreational opportunities and attract diverse wildlife.
-However, it is important to communicate clearly with stakeholders that floodplain management will not completely eliminate flooding, as misunderstandings could lead to concerns or opposition.</t>
-  </si>
-  <si>
     <t>Flood plain management Outcomes</t>
   </si>
   <si>
@@ -816,9 +657,6 @@
   </si>
   <si>
     <t>The project appears to have been a success and stakeholders appear happy with the outcome. There appears to be less flooding after recent heavy storms and evidence of increased biodiversity .</t>
-  </si>
-  <si>
-    <t>The project was a great success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event</t>
   </si>
   <si>
     <t>flood_plain.jpg</t>
@@ -828,11 +666,6 @@
 flood support website </t>
   </si>
   <si>
-    <t xml:space="preserve">The municipality plans to create a community website that offers residents practical information and signposts resources to prepare for floods. 
-Research shows that an easy access knowledge hub helps citizens getting knowledge and practical advices for flood preparation, receiving live updates and taking early actions to mitigate flood impacts, and finding support during crisis. 
-</t>
-  </si>
-  <si>
     <t>CS6</t>
   </si>
   <si>
@@ -843,10 +676,6 @@
 digital twin</t>
   </si>
   <si>
-    <t>The municipality will develop a flood modelling digital twin topredict flooding and evaulate possible emergency response measures to support flood crisis management.
-By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness will depend largely on the quality of the data collected and the accuracy of the modelling.</t>
-  </si>
-  <si>
     <t>CS8</t>
   </si>
   <si>
@@ -856,17 +685,7 @@
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate flood data and models, resulting in a useless tool.</t>
   </si>
   <si>
-    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
     <t>The digital twin works well and is providing some good insights, not least a predictive flood model for coastal road closures. The municipality is happy and would like to develop it further.</t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing flood protection activities to be far better targeted. Most residents don't notice, but the impact of flooding is decreasing yearly.</t>
-  </si>
-  <si>
-    <t>Approve installation of 
-cool roofs</t>
   </si>
   <si>
     <t>Plans have been submitted to apply reflective paint to roofs, aiming to reduce indoor temperatures and mitigate heat in the surrounding environment.
@@ -895,10 +714,6 @@
     <t>cool_roofs.jpg</t>
   </si>
   <si>
-    <t>Approve installation of
-firebreaks</t>
-  </si>
-  <si>
     <t>Plans have been submitted to install fire breaks in the dry hinterland to help reduce the long-term damage caused by heat-induced forest and scrub fires. These fire breaks will contain fires and prevent them from spreading, which would reduce pressure on emergency services and help limit biodiversity loss over time.
 However, there are costs associated with both the installation and ongoing maintenance of the fire breaks. Additionally, the initial clearing of trees and scrubland may have short-term negative impacts on local biodiversity.</t>
   </si>
@@ -921,10 +736,6 @@
     <t>firebreaks.jpeg</t>
   </si>
   <si>
-    <t>Approve installation of
-green walls</t>
-  </si>
-  <si>
     <t>The municipality plans to install green walls on buildings throughout the town to reduce local temperatures by cooling both the buildings and surrounding streets, encouraging greater daytime use of public spaces and increased foot traffic to local shops.
 However, green walls require a consistent water supply to keep them green. Without proper maintenance, the plants may die, creating both biological and fire hazards.</t>
   </si>
@@ -961,15 +772,6 @@
     <t>Although fast growing, the tree species selected for the forest were susceptible to a local pest, resulting in many of the trees dying and becoming fire risks.</t>
   </si>
   <si>
-    <t>The forests are a limited success as the  many of the trees selected seem to die quite quickly, leading to a patchy feel to the forest. Some of the forests have been more resilient and the locals appreciate being close to nature.</t>
-  </si>
-  <si>
-    <t>The forests have been fairly successful and provide interesting talking points for the townspeople, though there are some concerns that the forests are becoming home to rats and feral pets.</t>
-  </si>
-  <si>
-    <t>The forests are a great success, providing local cool spaces in the middle of the town and providing opportunities for heat stress residents to engage with nature.</t>
-  </si>
-  <si>
     <t>miyawaki.jpg</t>
   </si>
   <si>
@@ -985,9 +787,6 @@
 Outcomes</t>
   </si>
   <si>
-    <t>The town has become a tourist destination for booze-filled stag and hen parties, making the town a right mess and stretching the emergency services.</t>
-  </si>
-  <si>
     <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry and not really addressing the issue.</t>
   </si>
   <si>
@@ -1011,9 +810,6 @@
     <t>Heat knowledge base Outcomes</t>
   </si>
   <si>
-    <t>The project is delivered and residents are aware and using the website.  Residents are better able to prepare for the long summer heatwave and pass invaluable knowledge to visitors to the town.</t>
-  </si>
-  <si>
     <t>Create a heat 
 digital twin</t>
   </si>
@@ -1028,17 +824,229 @@
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate heat data and models, resulting in a useless tool.</t>
   </si>
   <si>
-    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting impossible scenarios. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
     <t>The digital twin works well and is providing some good insights, not least  the predictive medium-term heat wave model. Allowing residents to plan accordingly. The municipality is happy and would like to develop it further.</t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is coping with long-term heat.</t>
   </si>
   <si>
     <t>The local university suggests to host a beaver-led land management project as a nature-based solution aimed at reducing river flooding. The low-cost project positions the municipality as forward-thinking in its approach to climate resilience and environmental sustainability, which could generate valuable insights into natural flood mitigation.
 However, the beavers may dig burrows and channels that affect the stability of river banks, leading to erosions, damage to crops and property.</t>
+  </si>
+  <si>
+    <t>An offshore fish farm that optimises fish yields using modern aquaculture techniques has been proposed, which will create local jobs in both fish cultivation and processing, and offer more high-quality fish at both regional and national levels.
+However, fish farms are criticised for promoting monocultures, not only among farmed fish species but also by impacting the biodiversity in the surrounding waters. Additionally, lacking of transparency in some fish farming operations, particularly regarding their husbandry practices, raises concerns.</t>
+  </si>
+  <si>
+    <t>The municipality will develop a flood modelling digital twin to predict flooding and evaluate possible emergency response measures to support flood crisis management.
+By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness will depend largely on the quality of the data collected and the accuracy of the modelling.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The app is developed by a consultancy with little understanding or interest in the project, producing a buggy mess that nobody wants.</t>
+  </si>
+  <si>
+    <t>The project is a success, with the wildlife park receiving awards for its programmes. There's some interest from the local community, but not to levels expected.</t>
+  </si>
+  <si>
+    <t>The project is a great success, with the successful reintroduction of rare species. The park is popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about conservation.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! An initial breeding programme to strengthen the wolf community led to wolves growing out of control and terrorising local pets.</t>
+  </si>
+  <si>
+    <t>The project starts with a lot of fuss, but the work is passed off to a low-cost design bureau who have issues and produce a strange website that serves no-one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site is poorly advertised, with few residents event being aware that the site even exists. </t>
+  </si>
+  <si>
+    <t>The municipality plans to develop a digital twin to monitor local biodiversity and assess the potential negative impacts of different human activities that could affect the ecosystem resilience.
+This digital twin will integrate real-world data with simulation models to generate actionable insights. Its effectiveness will largely depend on the quality of the data collected and the accuracy of the underlying models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce many 'AI hallucinations', often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce many 'AI hallucinations', often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce many 'AI hallucinations', often predicting impossible scenarios. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but it produces many 'AI hallucinations', often predicting wild extinction events. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Biodiversity resilience is growing year on year.</t>
+  </si>
+  <si>
+    <t>A local water company proposes to construct a large reservoir in a nearby valley. The reservoir would capture runoff during the wet seasons, helping establish a more reliable year-round water supply and alleviate water scarcity during the dry seasons.
+However, flooding the valley would significantly alter local ecosystem, displacing wildlife and disrupting fish migration along the river affected by the reservoir.</t>
+  </si>
+  <si>
+    <t>There was a serve drought in the summer. However, because the winter rains were stored in the reservoir, there is easily enough water for all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people should only shower once a week to save water. </t>
+  </si>
+  <si>
+    <t>The high resort fees tend to greatly limit the number of guests at any time and most just come to play golf once. The town also doesn’t feel any of the economic benefits that were promised.</t>
+  </si>
+  <si>
+    <t>The course is a success, the high resort fees keep the resort ticking over, giving a relaxed feel. The course has been good for the town, with new jobs created to support the course and the customers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality is considering importing bottled water from abroad to address drinking water shortages during drought conditions. This approach would provide a reliable summer water supply and is significantly less expensive in the short-term than upgrading the town’s aging water distribution infrastructure.
+However, regular deliveries of bottled water could contribute to traffic congestion and raise public concerns. There is also a reputational risk that the municipality may be seen as avoiding long-term solutions in favour of quick, externally sourced fixes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a disaster,  the water did not pass quality inspections and can not be consumed.  Instead the costly water is just being used for non-human use. </t>
+  </si>
+  <si>
+    <t>Meters have been installed, but the customers are largely disinterested. There is the perception that industry is the main user of water and domestic customers have little impact on overall use.</t>
+  </si>
+  <si>
+    <t>The municipality is seeking to collaborate with local market gardeners to implement precision irrigation systems aimed at reducing water consumption.
+The town hosts a significant market gardening industry that places substantial demand on tap water. Farmers often overwater, despite the potential negative impact on crop health. By using computer-assisted systems to assess the actual water needs of crops, irrigation can be optimised, reducing consumption and enabling the cultivation of currently marginal land.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The smart irrigation software is very buggy and is over-watering to the point of causing local flooding.</t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website. After an unseasonal drought, many residents cite the website as being a great resource for helping them to come to terms with drought issues.</t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, particularly for forecasting water scarcity. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing conservative water consumption activities to be far better targeted. The impact of droughts is decreasing year by year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortly after the project completes, the town is buffeted by a number of huge storms, the worst in living memory. Unlike previous storms, the coast road district doesn’t flood saving the council the cost of a large clean-up operation. </t>
+  </si>
+  <si>
+    <t>A retail company proposes to develop a large out-of-town retail and leisure park on currently unused land. This will bring long-term employment opportunities to the area and attract a significant number of visitors to the town. 
+However, there are concerns that the development could negatively impact the town centre, as shoppers may prefer the convenience of the new retail hub. Additionally, the proposed site is a well-loved local meadow, valued by the community for recreation and green space.</t>
+  </si>
+  <si>
+    <t>The beaver area suffers from a heavy rainstorm  resulting in beaver damn bursts and flooding in the downstream area.</t>
+  </si>
+  <si>
+    <t>The town’s seaside golf course is increasingly threatened by rising sea levels and high tides due to global warming despite the municipality has spent huge budget to protect it from natural encroachment. Allowing the course to return to the sea would enable the allocation of limited budgets more effectively, support the creation of a wildlife wetland, and reduce traffic along the shoreline.
+However, this decision may upset the golfers who regularly use the course and may be perceived by some residents as the municipality abandoning parts of the town to nature.</t>
+  </si>
+  <si>
+    <t>The project was a great success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event.</t>
+  </si>
+  <si>
+    <t>The municipality will develop a floodplain management plan for the local river to reduce floodings in downstream neighbourhoods. The project will remove existing developments and allow the land to naturally flood and store excess water. It will also support new recreational opportunities and attract diverse wildlife.
+However, it is important to communicate clearly with stakeholders that floodplain management will not completely eliminate flooding, as misunderstandings could lead to concerns or opposition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality plans to create a community website that offers residents practical information and signposts resources to help prepare for floods. 
+Research shows that an easy access knowledge hub will help citizens getting knowledge and practical advices for flood preparation, receiving live updates and taking early actions to mitigate flood impacts, and finding support during crisis. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site isn't advertised well, with few residents event being aware that the site even exists. </t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing flood protection activities to be far better targeted. The impact of flooding is decreasing yearly.</t>
+  </si>
+  <si>
+    <t>The forests are a great success, providing local cool spaces in the middle of the town and providing opportunities for heat stressed residents to engage with nature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The forests are a limited success as the  many of the trees selected seem to die quite quickly, leading to a patchy feel to the forest. There are concerns that the forests are becoming home to rats and feral pets. </t>
+  </si>
+  <si>
+    <t>The forests are a success with many residents enjoying having local urban forest space to engage with.</t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website. Residents are better able to prepare for the long summer heatwave and pass invaluable knowledge to visitors to the town.</t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. The town is increasingly coping with long-term heat.</t>
+  </si>
+  <si>
+    <t>You're a student who lives in the town and studies at the local college. The college is great, but you especially enjoy all the outdoor places around town.
+You would like to have more money and freedom but are unsure how to get them.​ You love going outdoors and doing nice things with friends and family, and prefer not to work too hard at the moment.
+You hate older people telling you what to do and where to go, were they ever young? The environment seems to be messed up and getting worse. You worry deeply about your future and the state of the world.</t>
+  </si>
+  <si>
+    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
+You like having a stable job with a decent wage and a choice of fun things when your not at work. In the near future you would like to buy a flat with your partner and start putting down some roots.
+You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and you seem to pay a lot of tax but not see much for it. Given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
+  </si>
+  <si>
+    <t>You are a retired worker. You’ve spent your entire life working hard, so it's time to kick back and take what you deserve.
+You enjoy activities that suit an active senior citizen such as shopping, meeting friends,  entertaining. You like using public transport that is easy and stress-free.​
+You don't like changes that hurts you.​ You are annoyed when young people complain about "it's hard now" while you remember how tough it was when you were young, but it didn’t affect you much.​ You have paid taxes all your life and think that retirees should not pay for extra.​</t>
+  </si>
+  <si>
+    <t>You are a local business owner and have run it for years. The shop keeps you busy enough and financially secure, but not wealthy.​
+You like nice customers who make good purchases​, tourists and holidaymakers who are keen to buy at your shop. You feel proud to be a part of the local community​.
+You hate the corporate shopping centre outside town that takes your customers, high parking charges stopping people coming to town.​ You would prefer things to stay as they are.</t>
+  </si>
+  <si>
+    <t>You are a local politician who entered politics to fight injustice both locally and in the wider community.
+You enjoy being a positive influence in the community and standing up for those that can't stand up for themselves. Helping change things even when people do not know what they want, and keeping big companies and powerful people from abusing their power.
+You hate people and organisations that don't understand that we are just tenants, not the permanent owners of the town. You also hate those who try to make quick money at the expense of hardworking citizens.</t>
+  </si>
+  <si>
+    <t>The community along the coastal road has been repeatedly impacted by sea flooding. High tides and onshore winds have caused significant disruption of services, costly property damages, and extensive clean-up efforts.
+Though, the wall cannot fully eliminate the risks of extreme events and could alter the scenic coastal views and the construction process will be disruptive. The long-term benefits including, improved safety, reduced damage and economic stability should outweigh the drawbacks. Thus supporting community growth and resilience.</t>
+  </si>
+  <si>
+    <t>The town has become a low-class tourist destination for drunken revellers, making the town messy and stretching local emergency services.</t>
+  </si>
+  <si>
+    <t>Economic decisions in a country far, far, away to cope with a global credit crunch have restricted the access to capital for many international companies, forcing them to suspend their operations in the town. This has increased costs for goods and services and a general reluctance among residents to spend.</t>
+  </si>
+  <si>
+    <t>A local farm's use of a pesticide has decimated the local bee population that prevented pollination of local crops and plants, leading to significant commercial and environmental consequences. 
+The incident has left residents and businesses deeply concerned about the region’s long-term prospects.</t>
+  </si>
+  <si>
+    <t>The event has caused substantial damage to our town’s biodiversity - impacting the plants, animals, and local businesses that rely on a healthy ecosystem. Restoring this balance will require significant effort. Whilst people are thankful the situation wasn't more severe, there is an understanding that some aspects of the municipality’s approach to protecting natural resources could be strengthened.</t>
+  </si>
+  <si>
+    <t>The event had a minimal impact with no serious damage to the local ecosystem. This outcome underscores the importance of proactive measures to protect biodiversity and ensure long-term environmental sustainability. The municipality’s commitment to these principles is clearly contributing to the health and resilience of the community.</t>
+  </si>
+  <si>
+    <t>The town has been battered by multiple winter storms, with each storm causing additional flooding, the town is struggling to recover from before being hit by the next. Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>The town has a drier winter than expected, resulting in the main reservoir supplies being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
+  </si>
+  <si>
+    <t>The town has seen less rain than usual over the past year. Residents hoped last year's low rainfall was just a temporary dip, but unfortunately, that pattern is continuing now. Residents and businesses are understandably concerned about what this means for the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality's decisions have left the town highly vulnerable to intense heatwaves.  As record-high temperatures strain daily life, lacking preparedness measures exacerbates the suffering of residents. The public strongly criticizes the perceived failures in the municipality's heatwave strategy, leading to a widespread expectation that the mayor will step down due to this oversight. </t>
+  </si>
+  <si>
+    <t>A grounded oil tanker released a million barrels of crude oil along the coast, resulting in catastrophic losses to bird and marine life and  shutting down the local beach tourism industry for years to come.
+Some residents and businesses are moving away to areas with improved quality of life.</t>
+  </si>
+  <si>
+    <t>The flood has caused considerable damage, requiring significant effort to rebuild infrastructure and support affected communities. Sadly, some businesses have closed and many residents face hardship. While the situation could have been more severe, there is a feeling that more could have been done in advance to prepare for this event.</t>
+  </si>
+  <si>
+    <t>The drought has seriously  affected the town, resulting in extensive work needed to recover services. This situation has led to business closures and numerous residents facing hardships. Despite this, conditions could have been worse, many believe the response might have been much improved if not for perceived shortcomings. Residents feel that the municipality mishandled its drought planning efforts.</t>
+  </si>
+  <si>
+    <t>Approve installation 
+of cool roofs</t>
+  </si>
+  <si>
+    <t>Approve installation
+of firebreaks</t>
+  </si>
+  <si>
+    <t>Approve installation
+of green walls</t>
+  </si>
+  <si>
+    <t>Biodiversity knowledge
+base Outcomes</t>
   </si>
 </sst>
 </file>
@@ -1504,13 +1512,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="271" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="107.1640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1528,70 +1536,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="15" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="C5" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" ht="272" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="C7" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1605,10 +1613,10 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="H1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,9 +1628,7 @@
     <col min="5" max="7" width="22.5" style="11" customWidth="1"/>
     <col min="8" max="10" width="23.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" customWidth="1"/>
-    <col min="14" max="15" width="23.6640625" customWidth="1"/>
+    <col min="12" max="15" width="43.33203125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1634,278 +1640,278 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="J2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="I3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" ht="256" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="M3" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M4" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="14" t="s">
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="M5" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="14" t="s">
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="E6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="K6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1934,26 +1940,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1966,11 +1972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2000,37 +2006,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -2038,13 +2044,13 @@
     </row>
     <row r="2" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3">
@@ -2063,33 +2069,33 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
@@ -2108,36 +2114,36 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2155,36 +2161,36 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2202,36 +2208,36 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -2249,36 +2255,36 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -2296,33 +2302,33 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
@@ -2341,33 +2347,33 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
@@ -2386,33 +2392,33 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
@@ -2431,33 +2437,33 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
@@ -2476,33 +2482,33 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3">
@@ -2521,33 +2527,33 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3">
@@ -2566,33 +2572,33 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3">
@@ -2611,33 +2617,33 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3">
@@ -2656,33 +2662,33 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3">
@@ -2701,33 +2707,33 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3">
@@ -2746,33 +2752,33 @@
         <v>-1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3">
@@ -2791,33 +2797,33 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3">
@@ -2836,33 +2842,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3">
@@ -2881,36 +2887,36 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -2928,36 +2934,36 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -2975,36 +2981,36 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -3022,33 +3028,33 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -3066,36 +3072,36 @@
         <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3113,36 +3119,36 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3160,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>288</v>
@@ -3172,21 +3178,21 @@
         <v>289</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
@@ -3204,33 +3210,33 @@
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -3248,33 +3254,33 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -3292,22 +3298,22 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/dev/game_my_interventions-AC.xlsx
+++ b/dev/game_my_interventions-AC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7EB1-9275-F84A-9086-6A425EB42A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD82AC-5B6D-4B4C-A5F2-D8A080BAE9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1040" yWindow="6500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>What are heat resilience challenges?</t>
-  </si>
-  <si>
-    <t>Heat resilience challenges occur during prolonged periods of excessive local heat, characterized by consecutive days of unusually high temperatures. Heat waves exacerbate numerous risks, including health-related concerns, increased human mortality, economic impacts,  drought, water quality degradation, wildfire risk, power shortages, and agricultural losses.</t>
   </si>
   <si>
     <t xml:space="preserve">The town normally has great summers, but this summer was a lot hotter than normal, making it hard to enjoy the weather as it was just too hot. </t>
@@ -291,10 +288,6 @@
 fish farm</t>
   </si>
   <si>
-    <t>Fish farm
-Outcomes</t>
-  </si>
-  <si>
     <t>The farm's operations have heavily polluted the water, endangering marine life through the release of pathogens and parasites.</t>
   </si>
   <si>
@@ -314,14 +307,6 @@
 monofarm</t>
   </si>
   <si>
-    <t>A large-scale commercial farm on currently unused farmland has been proposed that utilizes modern agricultural techniques to maximize crop production, focusing on high-yield, disease-resistant varieties. The farm is expected to generate local employment and contribute to regional food supply.
-However, the planned use of intensive pesticides and high water consumption raises concerns about potential negative impacts on local biodiversity and water resources. These environmental risks will need to be carefully assessed and managed.</t>
-  </si>
-  <si>
-    <t>Monofarm
-Outcomes</t>
-  </si>
-  <si>
     <t>The selected crop has proven highly invasive, spreading to other farms and people's gardens. It is outcompeting native plants and decreasing local biodiversity.</t>
   </si>
   <si>
@@ -348,10 +333,6 @@
     <t>CS9</t>
   </si>
   <si>
-    <t>Citizen biodiversity
-Outcomes</t>
-  </si>
-  <si>
     <t>Theres's a small, but hardcore set of citizen users recording everything they can. This provides researchers with useful insights, but the project really needs more scale.</t>
   </si>
   <si>
@@ -372,10 +353,6 @@
 The park plans to establish a breeding program for rare and threatened animal species, with the goal of reintroducing them into the surrounding environment to help maintain healthy and sustainable populations.</t>
   </si>
   <si>
-    <t>Protect local
-biodiversity Outcomes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whilst the wildlife park has been able to breed endangered local animals, returning  them to their environments always proved difficult, leading to accusations that the park staff were incompetent. </t>
   </si>
   <si>
@@ -389,9 +366,6 @@
     <t>A local farming group is seeking legal protection for their regionally produced crops under relevant EU legislation (Geographical Indication or GI tagging of crops). This designation would ensure that only crops grown in this specific area can use the region’s name, preventing producers in other regions from marketing similar products under the same label.</t>
   </si>
   <si>
-    <t>Legally protect local crops Outcomes</t>
-  </si>
-  <si>
     <t>The project is a disaster! The lawyers engaged didn't understand trademarking and lost their case, severely undermining the financial security of the farmers.</t>
   </si>
   <si>
@@ -425,9 +399,6 @@
 digital twin </t>
   </si>
   <si>
-    <t>Biodiversity digital twin Outcomes</t>
-  </si>
-  <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate biodiversity data and models, resulting in a useless tool.</t>
   </si>
   <si>
@@ -441,9 +412,6 @@
 construction </t>
   </si>
   <si>
-    <t>Reservoir construction Outcomes</t>
-  </si>
-  <si>
     <t>The project is a disaster! The dam has been successfully constructed, but it's empty! It turns out that the municipality signed the wrong water ordinances and the expected inflowing rives are flowing elsewhere.</t>
   </si>
   <si>
@@ -464,9 +432,6 @@
 However, concerns have been raised about the resort’s high water demands to maintain the course, as well as the possibility that much of the generated wealth may remain within the resort’s gated community, limiting broader economic benefits to the surrounding area.</t>
   </si>
   <si>
-    <t>golf resort development Outcomes</t>
-  </si>
-  <si>
     <t>The course is a success, though the high resort fees tend to keep the resort ticking over, giving a relaxed feel. The course has been good for the town, with jobs to support the course and the customers.</t>
   </si>
   <si>
@@ -477,9 +442,6 @@
 delivery service</t>
   </si>
   <si>
-    <t>Water delivery service Outcomes</t>
-  </si>
-  <si>
     <t>The effects of a hot and dry summer have been offset through the water. While not a perfect solution, it has had a positive effect.</t>
   </si>
   <si>
@@ -500,9 +462,6 @@
 While this technology offers valuable insights, user engagement tends to decline over time as the initial novelty of monitoring water usage diminishes.</t>
   </si>
   <si>
-    <t>smart water meter Outcomes</t>
-  </si>
-  <si>
     <t>The project is a disaster! The municipality advocated for the smart meter app, but it turned to be full of spyware, collecting customer details and making unauthorised charges on customer accounts.</t>
   </si>
   <si>
@@ -519,9 +478,6 @@
 system</t>
   </si>
   <si>
-    <t>Smart irrigation programme Outcomes</t>
-  </si>
-  <si>
     <t>Smart irrigation systems have been installed, with mixed results. Some farmers are reporting success, but many are reluctant to use them as they feel that they have a much better understanding of crop requirements.</t>
   </si>
   <si>
@@ -541,9 +497,6 @@
 Research indicates that residents often experience greater stress from the anticipation of a drought than from the actual event itself. By offering clear, accessible resources, the website can help alleviate concerns, increase awareness, and empower the community with the knowledge needed to respond effectively.</t>
   </si>
   <si>
-    <t>Drought dashboard Outcomes</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site isn't advertised well, with few residents event being aware that the site event exists. </t>
   </si>
   <si>
@@ -558,9 +511,6 @@
 By integrating live data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness, however, will depend heavily on the quality of the data collected and the accuracy of the underlying models.</t>
   </si>
   <si>
-    <t>Drought digital twin Outcomes</t>
-  </si>
-  <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate drought data and models, resulting in a useless tool.</t>
   </si>
   <si>
@@ -568,9 +518,6 @@
 construction</t>
   </si>
   <si>
-    <t>Sea wall construction Outcomes</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project is a legal disaster area! Residents of nearby 'Cliff Heights' raise long and costly  objections as their district is being allowed to erode into the sea, resulting in the project being substantially delayed. </t>
   </si>
   <si>
@@ -587,9 +534,6 @@
 leisure resort</t>
   </si>
   <si>
-    <t>Out-of-town leisure resort Outcomes</t>
-  </si>
-  <si>
     <t>The complex is a titanic success, so much so that there’s gridlock in and around the town as everybody wants to go there making it impossible to travel anywhere.</t>
   </si>
   <si>
@@ -609,9 +553,6 @@
 flood protection</t>
   </si>
   <si>
-    <t>Nature-based flood protection Outcomes</t>
-  </si>
-  <si>
     <t>The research is a disaster! The beavers have moved to the local arboretum and destroyed most of the rare saplings. The university abandoned the research as unworkable.</t>
   </si>
   <si>
@@ -628,9 +569,6 @@
 course to sea</t>
   </si>
   <si>
-    <t>Return seaside golf course to sea Outcomes</t>
-  </si>
-  <si>
     <t>As the golf course returns to nature, the town is hit by a ‘once in a generation’ storm with extreme tides that rush over the course and undermine the mainline rail track, causing it to be out of use for six months.</t>
   </si>
   <si>
@@ -647,9 +585,6 @@
 management</t>
   </si>
   <si>
-    <t>Flood plain management Outcomes</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project is a disaster! There was a major flood , and a much larger area of land was flooded. Farming land has been destroyed and polluted waters flow through the town. </t>
   </si>
   <si>
@@ -669,9 +604,6 @@
     <t>CS6</t>
   </si>
   <si>
-    <t>Flood support website Outcomes</t>
-  </si>
-  <si>
     <t>Create a flooding
 digital twin</t>
   </si>
@@ -679,9 +611,6 @@
     <t>CS8</t>
   </si>
   <si>
-    <t>Flooding digital twin Outcomes</t>
-  </si>
-  <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate flood data and models, resulting in a useless tool.</t>
   </si>
   <si>
@@ -695,10 +624,6 @@
     <t>CS1</t>
   </si>
   <si>
-    <t>Cool roofs
-Outcomes</t>
-  </si>
-  <si>
     <t>The project is a disaster! The painters have ended up painting everything and damaging many roof-top solar panels.</t>
   </si>
   <si>
@@ -718,9 +643,6 @@
 However, there are costs associated with both the installation and ongoing maintenance of the fire breaks. Additionally, the initial clearing of trees and scrubland may have short-term negative impacts on local biodiversity.</t>
   </si>
   <si>
-    <t>Install firebreaks Outcomes</t>
-  </si>
-  <si>
     <t>The fire breaks have been a massive failure after a scrubland fire overcame the breaks and raged out of control until it burnt itself out.</t>
   </si>
   <si>
@@ -740,9 +662,6 @@
 However, green walls require a consistent water supply to keep them green. Without proper maintenance, the plants may die, creating both biological and fire hazards.</t>
   </si>
   <si>
-    <t>Install green walls Outcomes</t>
-  </si>
-  <si>
     <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows, making the buildings unpleasant to be around.</t>
   </si>
   <si>
@@ -766,9 +685,6 @@
 However, the focus on rapid growth may lead to the selection of tree species that are more vulnerable to pests and disease, potentially affecting the long-term health and resilience of these green spaces.</t>
   </si>
   <si>
-    <t>Miyawaki Forest Outcomes</t>
-  </si>
-  <si>
     <t>Although fast growing, the tree species selected for the forest were susceptible to a local pest, resulting in many of the trees dying and becoming fire risks.</t>
   </si>
   <si>
@@ -779,14 +695,6 @@
 heat tourism</t>
   </si>
   <si>
-    <t>The municipality is exploring the idea of capitalizing on its annual heatwave by branding the town as a destination for “extreme heat tourism,” aimed at attracting northern European tourists seeking high-temperature holiday experiences.
-This strategy has the potential to boost tourism, stimulate the local economy, and create new jobs to support visitor services. However, prioritizing tourist infrastructure could risk shifting development focus away from the long-term needs of local residents.</t>
-  </si>
-  <si>
-    <t>Heat tourism
-Outcomes</t>
-  </si>
-  <si>
     <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry and not really addressing the issue.</t>
   </si>
   <si>
@@ -807,18 +715,12 @@
 Research indicates that people often make poor decisions when dealing with extreme heat, particularly in cases of heat stress or heatstroke. By providing accessible, reliable information, the website can help residents make better-informed choices and respond more effectively during high-temperature conditions.</t>
   </si>
   <si>
-    <t>Heat knowledge base Outcomes</t>
-  </si>
-  <si>
     <t>Create a heat 
 digital twin</t>
   </si>
   <si>
     <t>The municipality will develop a heatwave modelling digital twin to assess the likelihood and potential impacts of extreme heat events. This tool will support improved preparedness and inform long-term planning for heat resilience.
 By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness, however, will depend heavily on the quality of the data collected and the accuracy of the modelling.</t>
-  </si>
-  <si>
-    <t>Heat digital twin Outcomes</t>
   </si>
   <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate heat data and models, resulting in a useless tool.</t>
@@ -1020,9 +922,6 @@
     <t>The town has seen less rain than usual over the past year. Residents hoped last year's low rainfall was just a temporary dip, but unfortunately, that pattern is continuing now. Residents and businesses are understandably concerned about what this means for the future.</t>
   </si>
   <si>
-    <t xml:space="preserve">The municipality's decisions have left the town highly vulnerable to intense heatwaves.  As record-high temperatures strain daily life, lacking preparedness measures exacerbates the suffering of residents. The public strongly criticizes the perceived failures in the municipality's heatwave strategy, leading to a widespread expectation that the mayor will step down due to this oversight. </t>
-  </si>
-  <si>
     <t>A grounded oil tanker released a million barrels of crude oil along the coast, resulting in catastrophic losses to bird and marine life and  shutting down the local beach tourism industry for years to come.
 Some residents and businesses are moving away to areas with improved quality of life.</t>
   </si>
@@ -1045,8 +944,21 @@
 of green walls</t>
   </si>
   <si>
-    <t>Biodiversity knowledge
-base Outcomes</t>
+    <t>outcomes</t>
+  </si>
+  <si>
+    <t>A large-scale commercial farm on currently unused farmland has been proposed that utilises modern agricultural techniques to maximise crop production, focusing on high-yield, disease-resistant varieties. The farm is expected to generate local employment and contribute to regional food supply.
+However, the planned use of intensive pesticides and high water consumption raises concerns about potential negative impacts on local biodiversity and water resources. These environmental risks will need to be carefully assessed and managed.</t>
+  </si>
+  <si>
+    <t>The municipality is exploring the idea of capitalising on its annual heatwave by branding the town as a destination for “extreme heat tourism,” aimed at attracting northern European tourists seeking high-temperature holiday experiences.
+This strategy has the potential to boost tourism, stimulate the local economy, and create new jobs to support visitor services. However, prioritising tourist infrastructure could risk shifting development focus away from the long-term needs of local residents.</t>
+  </si>
+  <si>
+    <t>Heat resilience challenges occur during prolonged periods of excessive local heat, characterised by consecutive days of unusually high temperatures. Heat waves exacerbate numerous risks, including health-related concerns, increased human mortality, economic impacts,  drought, water quality degradation, wildfire risk, power shortages, and agricultural losses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality's decisions have left the town highly vulnerable to intense heatwaves.  As record-high temperatures strain daily life, lacking preparedness measures exacerbates the suffering of residents. The public strongly criticises the perceived failures in the municipality's heatwave strategy, leading to a widespread expectation that the mayor will step down due to this oversight. </t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1541,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>5</v>
@@ -1552,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
@@ -1574,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>12</v>
@@ -1585,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
@@ -1596,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>16</v>
@@ -1613,10 +1525,10 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="H1:O1048576"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1708,7 +1620,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>39</v>
@@ -1752,10 +1664,10 @@
         <v>48</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>39</v>
@@ -1764,10 +1676,10 @@
         <v>49</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>50</v>
@@ -1799,7 +1711,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>56</v>
@@ -1811,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>58</v>
@@ -1843,10 +1755,10 @@
         <v>36</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>64</v>
@@ -1858,7 +1770,7 @@
         <v>65</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>66</v>
@@ -1878,7 +1790,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>34</v>
@@ -1890,28 +1802,28 @@
         <v>36</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="M6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1940,26 +1852,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1972,11 +1884,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2006,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>30</v>
@@ -2047,10 +1959,10 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3">
@@ -2069,22 +1981,22 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="128" x14ac:dyDescent="0.2">
@@ -2092,10 +2004,10 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
@@ -2114,22 +2026,22 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -2137,13 +2049,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2161,22 +2073,22 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -2184,13 +2096,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2208,22 +2120,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="80" x14ac:dyDescent="0.2">
@@ -2231,13 +2143,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -2255,22 +2167,22 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -2278,13 +2190,13 @@
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -2302,22 +2214,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -2325,10 +2237,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
@@ -2347,22 +2259,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -2370,10 +2282,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
@@ -2392,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2415,10 +2327,10 @@
         <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
@@ -2437,22 +2349,22 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.2">
@@ -2460,10 +2372,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
@@ -2482,22 +2394,22 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2505,10 +2417,10 @@
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3">
@@ -2527,22 +2439,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2550,10 +2462,10 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3">
@@ -2572,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2595,10 +2507,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3">
@@ -2617,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2640,10 +2552,10 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3">
@@ -2662,22 +2574,22 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
@@ -2685,10 +2597,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3">
@@ -2707,22 +2619,22 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2730,10 +2642,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3">
@@ -2752,22 +2664,22 @@
         <v>-1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,10 +2687,10 @@
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3">
@@ -2797,22 +2709,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="128" x14ac:dyDescent="0.2">
@@ -2820,10 +2732,10 @@
         <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3">
@@ -2842,22 +2754,22 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2865,10 +2777,10 @@
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3">
@@ -2887,22 +2799,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -2910,13 +2822,13 @@
         <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -2934,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -2957,13 +2869,13 @@
         <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -2981,22 +2893,22 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -3004,13 +2916,13 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -3028,22 +2940,22 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="128" x14ac:dyDescent="0.2">
@@ -3051,10 +2963,10 @@
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -3072,22 +2984,22 @@
         <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -3095,13 +3007,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3119,22 +3031,22 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="128" x14ac:dyDescent="0.2">
@@ -3142,13 +3054,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3166,22 +3078,22 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -3189,10 +3101,10 @@
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
@@ -3210,22 +3122,22 @@
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3233,10 +3145,10 @@
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -3254,22 +3166,22 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="112" x14ac:dyDescent="0.2">
@@ -3277,10 +3189,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -3298,22 +3210,22 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/dev/game_my_interventions-AC.xlsx
+++ b/dev/game_my_interventions-AC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD82AC-5B6D-4B4C-A5F2-D8A080BAE9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249AE68-0FD9-4F44-97D7-79155EF3DF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="288">
   <si>
     <t>type</t>
   </si>
@@ -129,15 +129,6 @@
     <t>Economic resilience challenges arise when confidence in the economy declines. This manifests as reduced investment, company closures, job losses, and a general decrease in consumer spending. The severity of these challenges is determined by both their impact and duration; extreme events will have deeper and longer-lasting consequences than milder one.</t>
   </si>
   <si>
-    <t>Minor Resilience Challenge</t>
-  </si>
-  <si>
-    <t>Average Resilience Challenge</t>
-  </si>
-  <si>
-    <t>Extreme Resilience Challenge</t>
-  </si>
-  <si>
     <t>A large local employer closes down. All of a sudden, many people are out of work and companies that rely on the closed company have a reduction in their turnover.</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t>Challenges to biodiversity resilience occur when the plants and animals in an environment are threatened by outside factors. This commonly happens due to industrial pollution or the introduction of non-native flora and fauna.</t>
-  </si>
-  <si>
-    <t>A storage failure at a local dairy farm resulted in milk contaminating the river, leading to the loss of all fish life. While the leak was promptly repaired and the deceased fish removed, significant time will be required for the river’s ecosystem to recover.</t>
   </si>
   <si>
     <t>The municipality's decisions have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
@@ -219,9 +207,6 @@
   </si>
   <si>
     <t>Drought resilience is challenged when there isn't enough water to meet consumption needs. These droughts are usually caused by a lack of available water, due to consistently low rainfall or the overuse of surface and groundwater over time.</t>
-  </si>
-  <si>
-    <t>The town is facing challenges due to changing climate patterns that have significantly reduced rainfall, resulting in a drier landscape and limited water resources. While this presents difficulties for the community. Residents and businesses are considering relocation to areas with a more resilient environment.</t>
   </si>
   <si>
     <t>The municipality's past decisions have increased the town's vulnerability to water resources fluctuations. With diminishing water reserves and lacking adequate solutions, the challenging circumstances are intensifying. There is growing criticism of the municipality for not adequately preparing for a drought, raising speculation about whether the mayor may resign soon.</t>
@@ -291,9 +276,6 @@
     <t>The farm's operations have heavily polluted the water, endangering marine life through the release of pathogens and parasites.</t>
   </si>
   <si>
-    <t xml:space="preserve">The fish farm is attracting sharks, resulting in an attack on a local surfer. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The fish farms are operational and working well, creating jobs and adding fish to the local palette. </t>
   </si>
   <si>
@@ -415,12 +397,6 @@
     <t>The project is a disaster! The dam has been successfully constructed, but it's empty! It turns out that the municipality signed the wrong water ordinances and the expected inflowing rives are flowing elsewhere.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduced flows downstream have affected local fish population. The local angling community are unhappy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was a serve drought in the summer. Luckily because of the reservoir there is enough water for the township. </t>
-  </si>
-  <si>
     <t>reservoir.jpg</t>
   </si>
   <si>
@@ -432,9 +408,6 @@
 However, concerns have been raised about the resort’s high water demands to maintain the course, as well as the possibility that much of the generated wealth may remain within the resort’s gated community, limiting broader economic benefits to the surrounding area.</t>
   </si>
   <si>
-    <t>The course is a success, though the high resort fees tend to keep the resort ticking over, giving a relaxed feel. The course has been good for the town, with jobs to support the course and the customers.</t>
-  </si>
-  <si>
     <t>golf_course.jpg</t>
   </si>
   <si>
@@ -481,9 +454,6 @@
     <t>Smart irrigation systems have been installed, with mixed results. Some farmers are reporting success, but many are reluctant to use them as they feel that they have a much better understanding of crop requirements.</t>
   </si>
   <si>
-    <t>The smart irrigation system seem to be working alright, though there have been a few teething issues. Most farmers are reporting that the system is working well for them, though a few have run into issues.</t>
-  </si>
-  <si>
     <t>The smart irrigation systems are working well, with most farmers reporting both significant reductions in water requirements but also increases in yield. In some cases, marginal land is being returned to use.</t>
   </si>
   <si>
@@ -497,9 +467,6 @@
 Research indicates that residents often experience greater stress from the anticipation of a drought than from the actual event itself. By offering clear, accessible resources, the website can help alleviate concerns, increase awareness, and empower the community with the knowledge needed to respond effectively.</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site isn't advertised well, with few residents event being aware that the site event exists. </t>
-  </si>
-  <si>
     <t>The project is delivered and residents are aware and using the website. After an unseasonal flood, many residents cite the website as being a great resource for helping them to come to terms with flooding issues.</t>
   </si>
   <si>
@@ -534,9 +501,6 @@
 leisure resort</t>
   </si>
   <si>
-    <t>The complex is a titanic success, so much so that there’s gridlock in and around the town as everybody wants to go there making it impossible to travel anywhere.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The complex is a success, but heavy rains frequently flood the huge car parks and cause major traffic jams. </t>
   </si>
   <si>
@@ -658,10 +622,6 @@
     <t>firebreaks.jpeg</t>
   </si>
   <si>
-    <t>The municipality plans to install green walls on buildings throughout the town to reduce local temperatures by cooling both the buildings and surrounding streets, encouraging greater daytime use of public spaces and increased foot traffic to local shops.
-However, green walls require a consistent water supply to keep them green. Without proper maintenance, the plants may die, creating both biological and fire hazards.</t>
-  </si>
-  <si>
     <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows, making the buildings unpleasant to be around.</t>
   </si>
   <si>
@@ -695,13 +655,7 @@
 heat tourism</t>
   </si>
   <si>
-    <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry and not really addressing the issue.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The town has become a popular destination, with tourists coming from around the world. This has created a boom for the locals, with many now working in tourism. </t>
-  </si>
-  <si>
-    <t>The town has gained a reputation for being a great destination for discerning tourists throughout the year and it turns out that as much as tourists like the heat, they also like cool environments making the town liveable for all.</t>
   </si>
   <si>
     <t>heat_tourism.jpg</t>
@@ -733,10 +687,6 @@
 However, the beavers may dig burrows and channels that affect the stability of river banks, leading to erosions, damage to crops and property.</t>
   </si>
   <si>
-    <t>An offshore fish farm that optimises fish yields using modern aquaculture techniques has been proposed, which will create local jobs in both fish cultivation and processing, and offer more high-quality fish at both regional and national levels.
-However, fish farms are criticised for promoting monocultures, not only among farmed fish species but also by impacting the biodiversity in the surrounding waters. Additionally, lacking of transparency in some fish farming operations, particularly regarding their husbandry practices, raises concerns.</t>
-  </si>
-  <si>
     <t>The municipality will develop a flood modelling digital twin to predict flooding and evaluate possible emergency response measures to support flood crisis management.
 By integrating real-world data with advanced simulation models, the digital twin will generate valuable insights. Its effectiveness will depend largely on the quality of the data collected and the accuracy of the modelling.</t>
   </si>
@@ -756,9 +706,6 @@
     <t>The project starts with a lot of fuss, but the work is passed off to a low-cost design bureau who have issues and produce a strange website that serves no-one.</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site is poorly advertised, with few residents event being aware that the site even exists. </t>
-  </si>
-  <si>
     <t>The municipality plans to develop a digital twin to monitor local biodiversity and assess the potential negative impacts of different human activities that could affect the ecosystem resilience.
 This digital twin will integrate real-world data with simulation models to generate actionable insights. Its effectiveness will largely depend on the quality of the data collected and the accuracy of the underlying models.</t>
   </si>
@@ -778,20 +725,10 @@
     <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Biodiversity resilience is growing year on year.</t>
   </si>
   <si>
-    <t>A local water company proposes to construct a large reservoir in a nearby valley. The reservoir would capture runoff during the wet seasons, helping establish a more reliable year-round water supply and alleviate water scarcity during the dry seasons.
-However, flooding the valley would significantly alter local ecosystem, displacing wildlife and disrupting fish migration along the river affected by the reservoir.</t>
-  </si>
-  <si>
     <t>There was a serve drought in the summer. However, because the winter rains were stored in the reservoir, there is easily enough water for all.</t>
   </si>
   <si>
     <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people should only shower once a week to save water. </t>
-  </si>
-  <si>
-    <t>The high resort fees tend to greatly limit the number of guests at any time and most just come to play golf once. The town also doesn’t feel any of the economic benefits that were promised.</t>
-  </si>
-  <si>
-    <t>The course is a success, the high resort fees keep the resort ticking over, giving a relaxed feel. The course has been good for the town, with new jobs created to support the course and the customers.</t>
   </si>
   <si>
     <t xml:space="preserve">The municipality is considering importing bottled water from abroad to address drinking water shortages during drought conditions. This approach would provide a reliable summer water supply and is significantly less expensive in the short-term than upgrading the town’s aging water distribution infrastructure.
@@ -831,23 +768,7 @@
     <t>The beaver area suffers from a heavy rainstorm  resulting in beaver damn bursts and flooding in the downstream area.</t>
   </si>
   <si>
-    <t>The town’s seaside golf course is increasingly threatened by rising sea levels and high tides due to global warming despite the municipality has spent huge budget to protect it from natural encroachment. Allowing the course to return to the sea would enable the allocation of limited budgets more effectively, support the creation of a wildlife wetland, and reduce traffic along the shoreline.
-However, this decision may upset the golfers who regularly use the course and may be perceived by some residents as the municipality abandoning parts of the town to nature.</t>
-  </si>
-  <si>
     <t>The project was a great success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event.</t>
-  </si>
-  <si>
-    <t>The municipality will develop a floodplain management plan for the local river to reduce floodings in downstream neighbourhoods. The project will remove existing developments and allow the land to naturally flood and store excess water. It will also support new recreational opportunities and attract diverse wildlife.
-However, it is important to communicate clearly with stakeholders that floodplain management will not completely eliminate flooding, as misunderstandings could lead to concerns or opposition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The municipality plans to create a community website that offers residents practical information and signposts resources to help prepare for floods. 
-Research shows that an easy access knowledge hub will help citizens getting knowledge and practical advices for flood preparation, receiving live updates and taking early actions to mitigate flood impacts, and finding support during crisis. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site isn't advertised well, with few residents event being aware that the site even exists. </t>
   </si>
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing flood protection activities to be far better targeted. The impact of flooding is decreasing yearly.</t>
@@ -873,16 +794,6 @@
 You hate older people telling you what to do and where to go, were they ever young? The environment seems to be messed up and getting worse. You worry deeply about your future and the state of the world.</t>
   </si>
   <si>
-    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
-You like having a stable job with a decent wage and a choice of fun things when your not at work. In the near future you would like to buy a flat with your partner and start putting down some roots.
-You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and you seem to pay a lot of tax but not see much for it. Given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
-  </si>
-  <si>
-    <t>You are a retired worker. You’ve spent your entire life working hard, so it's time to kick back and take what you deserve.
-You enjoy activities that suit an active senior citizen such as shopping, meeting friends,  entertaining. You like using public transport that is easy and stress-free.​
-You don't like changes that hurts you.​ You are annoyed when young people complain about "it's hard now" while you remember how tough it was when you were young, but it didn’t affect you much.​ You have paid taxes all your life and think that retirees should not pay for extra.​</t>
-  </si>
-  <si>
     <t>You are a local business owner and have run it for years. The shop keeps you busy enough and financially secure, but not wealthy.​
 You like nice customers who make good purchases​, tourists and holidaymakers who are keen to buy at your shop. You feel proud to be a part of the local community​.
 You hate the corporate shopping centre outside town that takes your customers, high parking charges stopping people coming to town.​ You would prefer things to stay as they are.</t>
@@ -900,9 +811,6 @@
     <t>The town has become a low-class tourist destination for drunken revellers, making the town messy and stretching local emergency services.</t>
   </si>
   <si>
-    <t>Economic decisions in a country far, far, away to cope with a global credit crunch have restricted the access to capital for many international companies, forcing them to suspend their operations in the town. This has increased costs for goods and services and a general reluctance among residents to spend.</t>
-  </si>
-  <si>
     <t>A local farm's use of a pesticide has decimated the local bee population that prevented pollination of local crops and plants, leading to significant commercial and environmental consequences. 
 The incident has left residents and businesses deeply concerned about the region’s long-term prospects.</t>
   </si>
@@ -919,9 +827,6 @@
     <t>The town has a drier winter than expected, resulting in the main reservoir supplies being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
   </si>
   <si>
-    <t>The town has seen less rain than usual over the past year. Residents hoped last year's low rainfall was just a temporary dip, but unfortunately, that pattern is continuing now. Residents and businesses are understandably concerned about what this means for the future.</t>
-  </si>
-  <si>
     <t>A grounded oil tanker released a million barrels of crude oil along the coast, resulting in catastrophic losses to bird and marine life and  shutting down the local beach tourism industry for years to come.
 Some residents and businesses are moving away to areas with improved quality of life.</t>
   </si>
@@ -951,14 +856,112 @@
 However, the planned use of intensive pesticides and high water consumption raises concerns about potential negative impacts on local biodiversity and water resources. These environmental risks will need to be carefully assessed and managed.</t>
   </si>
   <si>
-    <t>The municipality is exploring the idea of capitalising on its annual heatwave by branding the town as a destination for “extreme heat tourism,” aimed at attracting northern European tourists seeking high-temperature holiday experiences.
+    <t>Heat resilience challenges occur during prolonged periods of excessive local heat, characterised by consecutive days of unusually high temperatures. Heat waves exacerbate numerous risks, including health-related concerns, increased human mortality, economic impacts,  drought, water quality degradation, wildfire risk, power shortages, and agricultural losses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality's decisions have left the town highly vulnerable to intense heatwaves.  As record-high temperatures strain daily life, lacking preparedness measures exacerbates the suffering of residents. The public strongly criticises the perceived failures in the municipality's heatwave strategy, leading to a widespread expectation that the mayor will step down due to this oversight. </t>
+  </si>
+  <si>
+    <t>The course is a success. Whilst the fees are fairly high, the resort tends to do good business employing a lot of locals.</t>
+  </si>
+  <si>
+    <t>The course is a massive success. Whilst the fees are fairly high, the resort has become a destination hub with many visitors playing golf and exploring the local environment, rejuvenating the area.</t>
+  </si>
+  <si>
+    <t>The smart irrigation system seems to be working alright with most farmers reporting that the systems is working well. However, there are a few teething issues with some farmers running into problems.</t>
+  </si>
+  <si>
+    <t>The high resort fees tend to greatly limit the number of guests. Most just come to play golf once and then leave. The town doesn’t feel any of the economic benefits that were promised.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a great success, with residents regularly engaging and contributing with the website. To the point that it has become nationally recognised with other towns starting to adopt a similar approach. </t>
+  </si>
+  <si>
+    <t>The complex is a titanic success. Everybody wants to go there causing gridlock around the town. This makes it impossible to go anywhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fish farm has attracted a pod of humpback whales. Although a tourist attraction,  the whales repeatedly damage the pens. </t>
+  </si>
+  <si>
+    <t>An offshore fish farm that optimises fish yields using modern aquaculture techniques has been proposed, which will create local jobs in both fish cultivation and processing, and offer more high-quality fish at both regional and national levels.
+However, fish farms are criticised for promoting monocultures, not only among farmed fish species but also by impacting the biodiversity in the surrounding waters. Additionally,  there is a lack of transparency in some fish farming operations, particularly regarding their husbandry practices.</t>
+  </si>
+  <si>
+    <t>A local water company proposes to construct a large reservoir in a nearby valley. The reservoir would capture runoff during the wet seasons, helping establish a more reliable year-round water supply and alleviate water scarcity during the dry seasons.
+However, flooding the valley would significantly alter local ecosystems, displacing wildlife and disrupting fish migration along the river affected by the reservoir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced flows downstream have affected local fish populations. The local angling community are unhappy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a serve drought in the summer. Luckily because of the reservoir, there is enough water for the township. </t>
+  </si>
+  <si>
+    <t>The municipality will develop a floodplain management plan for the local river to reduce flooding in downstream neighbourhoods. The project will remove existing developments and allow the land to naturally flood and store excess water. It will also support new recreational opportunities and attract diverse wildlife.
+However, it is important to communicate clearly with stakeholders that floodplain management will not completely eliminate flooding, as misunderstandings could lead to concerns or opposition.</t>
+  </si>
+  <si>
+    <t>Despite the municipality spending a huge budget,  its seaside golf course is increasingly threatened by rising sea levels and high tides. Allowing the course to return to the sea would enable the allocation of limited budgets more effectively, support the creation of a wildlife wetland, and reduce traffic along the shoreline.
+However, this decision may upset the golfers who regularly use the course and may be perceived by some residents as the municipality abandoning parts of the town to nature.</t>
+  </si>
+  <si>
+    <t>The municipality is exploring the idea of capitalising on its annual heatwave by branding the town as a destination for “extreme heat tourism”. Aimed at attracting northern European tourists seeking high-temperature holiday experiences.
 This strategy has the potential to boost tourism, stimulate the local economy, and create new jobs to support visitor services. However, prioritising tourist infrastructure could risk shifting development focus away from the long-term needs of local residents.</t>
   </si>
   <si>
-    <t>Heat resilience challenges occur during prolonged periods of excessive local heat, characterised by consecutive days of unusually high temperatures. Heat waves exacerbate numerous risks, including health-related concerns, increased human mortality, economic impacts,  drought, water quality degradation, wildfire risk, power shortages, and agricultural losses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The municipality's decisions have left the town highly vulnerable to intense heatwaves.  As record-high temperatures strain daily life, lacking preparedness measures exacerbates the suffering of residents. The public strongly criticises the perceived failures in the municipality's heatwave strategy, leading to a widespread expectation that the mayor will step down due to this oversight. </t>
+    <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a great success with residents regularly engaging and contributing with the website. To the point that it has become nationally recognised with other towns starting to adopt a similar approach. </t>
+  </si>
+  <si>
+    <t>The town has gained a reputation for being a great destination throughout the year. This has turned tourism into a year-long industry, creating jobs and economic stability for the town.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site isn't advertised well, with few residents being aware that the site exists. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site is poorly advertised, with few residents being aware that the site exists. </t>
+  </si>
+  <si>
+    <t>The town has seen less rain than usual over the past year. Residents hoped last year's low rainfall was just a temporary dip, but unfortunately that pattern is continuing. Residents and businesses are understandably concerned about what this means for the future.</t>
+  </si>
+  <si>
+    <t>The town is facing challenges due to changing climate patterns that have significantly reduced rainfall, resulting in a drier landscape and limited water resources. This presents difficulties for the community, with residents and businesses considering relocation to areas with a more resilient environment.</t>
+  </si>
+  <si>
+    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
+You like having a stable job with a decent wage and a choice of fun things to do when not at work. In the near future you would like to buy a flat with your partner and start putting down some roots.
+You hate​ the lack of work opportunities and you want to get on and build a career. You're struggling to make ends meet and you seem to pay a lot of tax but not see much for it. Given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
+  </si>
+  <si>
+    <t>A storage failure at a local dairy farm resulted in milk contaminating the river, killing many fish. While the leak was promptly repaired and the deceased fish removed, significant time will be required for the river’s ecosystem to recover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality plans to create a community website that offers residents practical information and signposts resources to help prepare for floods. 
+Research shows that an easy access knowledge hub will help citizens gain knowledge and practical advice for flood preparation, receiving live updates and taking early actions to mitigate flood impacts, and finding support during crisis. 
+</t>
+  </si>
+  <si>
+    <t>To reduce local temperatures, within buildings and surrounding streets, the municipality plans to install green walls throughout the town. This will encourage greater day time use of public spaces and increased foot traffic to local shops.
+However, green walls require a consistent water supply to keep them green. Without proper maintenance, the plants may die, creating both biological and fire hazards.</t>
+  </si>
+  <si>
+    <t>You are a retired worker. You’ve spent your entire life working hard, so it's time to kick back and make the most of your golden years.
+You enjoy activities that suit an active senior citizen such as shopping, meeting friends,  and entertaining. You like using public transport that is easy and stress-free.​
+You don't like changes that hurts you.​ You are annoyed when young people complain about "it's hard now" while you remember how tough it was when you were young, but it didn’t affect you much.​ You have paid taxes all your life and think that retirees should not pay for extra.​</t>
+  </si>
+  <si>
+    <t>Minor Event</t>
+  </si>
+  <si>
+    <t>Average Event</t>
+  </si>
+  <si>
+    <t>Extreme Event</t>
+  </si>
+  <si>
+    <t>To cope with a global credit crunch, economic decisions in a country far, far, away have restricted the access to capital for many international companies, forcing them to suspend their operations in the town. This has increased costs for goods and services and a general reluctance among residents to spend.</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="271" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>5</v>
@@ -1464,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
@@ -1486,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>12</v>
@@ -1497,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
@@ -1508,7 +1511,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>16</v>
@@ -1524,11 +1527,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1541,8 @@
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" customWidth="1"/>
     <col min="5" max="7" width="22.5" style="11" customWidth="1"/>
-    <col min="8" max="10" width="23.6640625" customWidth="1"/>
+    <col min="8" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="11" customWidth="1"/>
     <col min="12" max="15" width="43.33203125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
@@ -1591,7 +1595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -1605,225 +1609,225 @@
         <v>33</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="J2" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="M3" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="I4" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="K4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="M4" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="M5" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="K6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1852,26 +1856,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1885,10 +1889,10 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,22 +1922,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>25</v>
@@ -1956,13 +1960,13 @@
     </row>
     <row r="2" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3">
@@ -1981,33 +1985,33 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
@@ -2026,36 +2030,36 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2073,36 +2077,36 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2120,36 +2124,36 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -2167,36 +2171,36 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -2214,33 +2218,33 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
@@ -2259,33 +2263,33 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
@@ -2304,33 +2308,33 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
@@ -2349,33 +2353,33 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
@@ -2394,33 +2398,33 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3">
@@ -2439,33 +2443,33 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3">
@@ -2484,33 +2488,33 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3">
@@ -2529,33 +2533,33 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3">
@@ -2574,33 +2578,33 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3">
@@ -2619,33 +2623,33 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3">
@@ -2664,33 +2668,33 @@
         <v>-1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3">
@@ -2709,33 +2713,33 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3">
@@ -2754,33 +2758,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3">
@@ -2799,36 +2803,36 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -2846,36 +2850,36 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -2893,36 +2897,36 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -2940,33 +2944,33 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -2984,36 +2988,36 @@
         <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3031,36 +3035,36 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3078,33 +3082,33 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
@@ -3122,33 +3126,33 @@
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -3166,33 +3170,33 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -3210,22 +3214,22 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
